--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H2">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I2">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J2">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N2">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O2">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P2">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q2">
-        <v>0.1943794568613333</v>
+        <v>8.412413952719556</v>
       </c>
       <c r="R2">
-        <v>1.749415111752</v>
+        <v>75.71172557447601</v>
       </c>
       <c r="S2">
-        <v>0.003630953663465586</v>
+        <v>0.03584927463981252</v>
       </c>
       <c r="T2">
-        <v>0.003630953663465586</v>
+        <v>0.03584927463981252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H3">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I3">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J3">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.769553</v>
       </c>
       <c r="O3">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P3">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q3">
-        <v>0.341284642728</v>
+        <v>6.566562069261001</v>
       </c>
       <c r="R3">
-        <v>3.071561784551999</v>
+        <v>59.099058623349</v>
       </c>
       <c r="S3">
-        <v>0.006375101277712641</v>
+        <v>0.02798322673888524</v>
       </c>
       <c r="T3">
-        <v>0.00637510127771264</v>
+        <v>0.02798322673888524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H4">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I4">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J4">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N4">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O4">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P4">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q4">
-        <v>0.1760611497146667</v>
+        <v>7.359999433860445</v>
       </c>
       <c r="R4">
-        <v>1.584550347432</v>
+        <v>66.23999490474401</v>
       </c>
       <c r="S4">
-        <v>0.003288772830590195</v>
+        <v>0.03136443861848125</v>
       </c>
       <c r="T4">
-        <v>0.003288772830590195</v>
+        <v>0.03136443861848125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H5">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I5">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J5">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N5">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O5">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P5">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q5">
-        <v>0.3912555497093332</v>
+        <v>4.943862705130778</v>
       </c>
       <c r="R5">
-        <v>3.521299947384</v>
+        <v>44.494764346177</v>
       </c>
       <c r="S5">
-        <v>0.007308543785991731</v>
+        <v>0.02106813726641017</v>
       </c>
       <c r="T5">
-        <v>0.007308543785991732</v>
+        <v>0.02106813726641017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H6">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I6">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J6">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N6">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O6">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P6">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q6">
-        <v>0.1925281467928889</v>
+        <v>3.036143376719334</v>
       </c>
       <c r="R6">
-        <v>1.732753321136</v>
+        <v>27.325290390474</v>
       </c>
       <c r="S6">
-        <v>0.003596371711320178</v>
+        <v>0.01293844292132965</v>
       </c>
       <c r="T6">
-        <v>0.003596371711320178</v>
+        <v>0.01293844292132965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H7">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I7">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J7">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N7">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O7">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P7">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q7">
-        <v>0.2797806082559999</v>
+        <v>4.811997322669112</v>
       </c>
       <c r="R7">
-        <v>2.518025474303999</v>
+        <v>43.30797590402201</v>
       </c>
       <c r="S7">
-        <v>0.005226223186941283</v>
+        <v>0.02050619650387506</v>
       </c>
       <c r="T7">
-        <v>0.005226223186941283</v>
+        <v>0.02050619650387506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.60007</v>
       </c>
       <c r="I8">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J8">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N8">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O8">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P8">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q8">
-        <v>0.1791817055233333</v>
+        <v>0.4030348764488889</v>
       </c>
       <c r="R8">
-        <v>1.61263534971</v>
+        <v>3.62731388804</v>
       </c>
       <c r="S8">
-        <v>0.003347063936700292</v>
+        <v>0.001717522230413807</v>
       </c>
       <c r="T8">
-        <v>0.003347063936700293</v>
+        <v>0.001717522230413808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.60007</v>
       </c>
       <c r="I9">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J9">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.769553</v>
       </c>
       <c r="O9">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P9">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q9">
         <v>0.31460096319</v>
@@ -1013,10 +1013,10 @@
         <v>2.83140866871</v>
       </c>
       <c r="S9">
-        <v>0.005876657637949</v>
+        <v>0.001340663499767727</v>
       </c>
       <c r="T9">
-        <v>0.005876657637949</v>
+        <v>0.001340663499767727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.60007</v>
       </c>
       <c r="I10">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J10">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N10">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O10">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P10">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q10">
-        <v>0.1622956334566667</v>
+        <v>0.3526141817511111</v>
       </c>
       <c r="R10">
-        <v>1.46066070111</v>
+        <v>3.17352763576</v>
       </c>
       <c r="S10">
-        <v>0.003031636852881726</v>
+        <v>0.001502655803023316</v>
       </c>
       <c r="T10">
-        <v>0.003031636852881726</v>
+        <v>0.001502655803023316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.60007</v>
       </c>
       <c r="I11">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J11">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N11">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O11">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P11">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q11">
-        <v>0.3606648450633334</v>
+        <v>0.2368581843144445</v>
       </c>
       <c r="R11">
-        <v>3.24598360557</v>
+        <v>2.13172365883</v>
       </c>
       <c r="S11">
-        <v>0.006737118014483247</v>
+        <v>0.001009364749273997</v>
       </c>
       <c r="T11">
-        <v>0.006737118014483249</v>
+        <v>0.001009364749273997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.60007</v>
       </c>
       <c r="I12">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J12">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N12">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O12">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P12">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q12">
-        <v>0.1774751419755556</v>
+        <v>0.1454602302733333</v>
       </c>
       <c r="R12">
-        <v>1.59727627778</v>
+        <v>1.30914207246</v>
       </c>
       <c r="S12">
-        <v>0.003315185808909448</v>
+        <v>0.0006198748389638283</v>
       </c>
       <c r="T12">
-        <v>0.003315185808909449</v>
+        <v>0.0006198748389638284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.60007</v>
       </c>
       <c r="I13">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J13">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N13">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O13">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P13">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q13">
-        <v>0.25790568288</v>
+        <v>0.2305405745977778</v>
       </c>
       <c r="R13">
-        <v>2.32115114592</v>
+        <v>2.07486517138</v>
       </c>
       <c r="S13">
-        <v>0.004817605724404154</v>
+        <v>0.0009824424262555593</v>
       </c>
       <c r="T13">
-        <v>0.004817605724404154</v>
+        <v>0.0009824424262555595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H14">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I14">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J14">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N14">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O14">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P14">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q14">
-        <v>0.3877275441526666</v>
+        <v>0.5631916624191111</v>
       </c>
       <c r="R14">
-        <v>3.489547897374</v>
+        <v>5.068724961772</v>
       </c>
       <c r="S14">
-        <v>0.007242641633019648</v>
+        <v>0.002400026044175856</v>
       </c>
       <c r="T14">
-        <v>0.00724264163301965</v>
+        <v>0.002400026044175857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H15">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I15">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J15">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.769553</v>
       </c>
       <c r="O15">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P15">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q15">
-        <v>0.680758442886</v>
+        <v>0.439616146917</v>
       </c>
       <c r="R15">
-        <v>6.126825985974</v>
+        <v>3.956545322253</v>
       </c>
       <c r="S15">
-        <v>0.01271637652478568</v>
+        <v>0.001873412325582106</v>
       </c>
       <c r="T15">
-        <v>0.01271637652478568</v>
+        <v>0.001873412325582106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H16">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I16">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J16">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N16">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O16">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P16">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q16">
-        <v>0.3511881260593334</v>
+        <v>0.4927349438408889</v>
       </c>
       <c r="R16">
-        <v>3.160693134534</v>
+        <v>4.434614494568001</v>
       </c>
       <c r="S16">
-        <v>0.006560095564987698</v>
+        <v>0.002099776642669154</v>
       </c>
       <c r="T16">
-        <v>0.0065600955649877</v>
+        <v>0.002099776642669155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H17">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I17">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J17">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N17">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O17">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P17">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q17">
-        <v>0.7804351132286665</v>
+        <v>0.3309801765965555</v>
       </c>
       <c r="R17">
-        <v>7.023916019058</v>
+        <v>2.978821589369</v>
       </c>
       <c r="S17">
-        <v>0.0145783087329868</v>
+        <v>0.001410463074907023</v>
       </c>
       <c r="T17">
-        <v>0.0145783087329868</v>
+        <v>0.001410463074907023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H18">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I18">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J18">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N18">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O18">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P18">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q18">
-        <v>0.3840347469924444</v>
+        <v>0.2032627787086667</v>
       </c>
       <c r="R18">
-        <v>3.456312722932001</v>
+        <v>1.829365008378</v>
       </c>
       <c r="S18">
-        <v>0.007173661219174222</v>
+        <v>0.0008661988364971922</v>
       </c>
       <c r="T18">
-        <v>0.007173661219174224</v>
+        <v>0.0008661988364971926</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H19">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I19">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J19">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N19">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O19">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P19">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q19">
-        <v>0.5580767118719999</v>
+        <v>0.3221520941482222</v>
       </c>
       <c r="R19">
-        <v>5.022690406848</v>
+        <v>2.899368847334</v>
       </c>
       <c r="S19">
-        <v>0.01042471624412464</v>
+        <v>0.00137284244021026</v>
       </c>
       <c r="T19">
-        <v>0.01042471624412464</v>
+        <v>0.001372842440210261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H20">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I20">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J20">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N20">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O20">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P20">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q20">
-        <v>4.869470997236999</v>
+        <v>45.32259690181155</v>
       </c>
       <c r="R20">
-        <v>43.825238975133</v>
+        <v>407.903372116304</v>
       </c>
       <c r="S20">
-        <v>0.09096035065665542</v>
+        <v>0.1931410214540501</v>
       </c>
       <c r="T20">
-        <v>0.09096035065665542</v>
+        <v>0.1931410214540502</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H21">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I21">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J21">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.769553</v>
       </c>
       <c r="O21">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P21">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q21">
-        <v>8.549646636537</v>
+        <v>35.377912614444</v>
       </c>
       <c r="R21">
-        <v>76.94681972883301</v>
+        <v>318.401213529996</v>
       </c>
       <c r="S21">
-        <v>0.1597049980359602</v>
+        <v>0.1507620182062587</v>
       </c>
       <c r="T21">
-        <v>0.1597049980359602</v>
+        <v>0.1507620182062587</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H22">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I22">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J22">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N22">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O22">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P22">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q22">
-        <v>4.410572372817001</v>
+        <v>39.65262401650844</v>
       </c>
       <c r="R22">
-        <v>39.695151355353</v>
+        <v>356.873616148576</v>
       </c>
       <c r="S22">
-        <v>0.08238825323235931</v>
+        <v>0.168978585284369</v>
       </c>
       <c r="T22">
-        <v>0.08238825323235931</v>
+        <v>0.168978585284369</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H23">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I23">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J23">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N23">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O23">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P23">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q23">
-        <v>9.801486137378999</v>
+        <v>26.63548153738978</v>
       </c>
       <c r="R23">
-        <v>88.213375236411</v>
+        <v>239.719333836508</v>
       </c>
       <c r="S23">
-        <v>0.1830890083375003</v>
+        <v>0.1135063845127182</v>
       </c>
       <c r="T23">
-        <v>0.1830890083375003</v>
+        <v>0.1135063845127182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H24">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I24">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J24">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N24">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O24">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P24">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q24">
-        <v>4.823093150366001</v>
+        <v>16.35748111927733</v>
       </c>
       <c r="R24">
-        <v>43.407838353294</v>
+        <v>147.217330073496</v>
       </c>
       <c r="S24">
-        <v>0.0900940255021406</v>
+        <v>0.06970696358456646</v>
       </c>
       <c r="T24">
-        <v>0.09009402550214062</v>
+        <v>0.06970696358456648</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H25">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I25">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J25">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N25">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O25">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P25">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q25">
-        <v>7.008886533024</v>
+        <v>25.92504555454311</v>
       </c>
       <c r="R25">
-        <v>63.079978797216</v>
+        <v>233.325409990888</v>
       </c>
       <c r="S25">
-        <v>0.130924032018738</v>
+        <v>0.1104788807776171</v>
       </c>
       <c r="T25">
-        <v>0.130924032018738</v>
+        <v>0.1104788807776171</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H26">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I26">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J26">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N26">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O26">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P26">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q26">
-        <v>0.380635170608</v>
+        <v>0.424855489492</v>
       </c>
       <c r="R26">
-        <v>3.425716535472</v>
+        <v>3.823699405428</v>
       </c>
       <c r="S26">
-        <v>0.007110158087070424</v>
+        <v>0.001810510183002455</v>
       </c>
       <c r="T26">
-        <v>0.007110158087070425</v>
+        <v>0.001810510183002455</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H27">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I27">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J27">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.769553</v>
       </c>
       <c r="O27">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P27">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q27">
-        <v>0.668305901808</v>
+        <v>0.331633697283</v>
       </c>
       <c r="R27">
-        <v>6.014753116272</v>
+        <v>2.984703275547</v>
       </c>
       <c r="S27">
-        <v>0.01248376655469571</v>
+        <v>0.001413248035645144</v>
       </c>
       <c r="T27">
-        <v>0.01248376655469571</v>
+        <v>0.001413248035645144</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H28">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I28">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J28">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N28">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O28">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P28">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q28">
-        <v>0.344764137328</v>
+        <v>0.371704980248</v>
       </c>
       <c r="R28">
-        <v>3.102877235952</v>
+        <v>3.345344822232</v>
       </c>
       <c r="S28">
-        <v>0.006440097259638301</v>
+        <v>0.001584010724720558</v>
       </c>
       <c r="T28">
-        <v>0.006440097259638302</v>
+        <v>0.001584010724720558</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H29">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I29">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J29">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N29">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O29">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P29">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q29">
-        <v>0.766159270736</v>
+        <v>0.249681865559</v>
       </c>
       <c r="R29">
-        <v>6.895433436624001</v>
+        <v>2.247136790031</v>
       </c>
       <c r="S29">
-        <v>0.01431164000453787</v>
+        <v>0.001064012520224554</v>
       </c>
       <c r="T29">
-        <v>0.01431164000453787</v>
+        <v>0.001064012520224554</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H30">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I30">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J30">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N30">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O30">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P30">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q30">
-        <v>0.3770099226773334</v>
+        <v>0.153335557158</v>
       </c>
       <c r="R30">
-        <v>3.393089304096001</v>
+        <v>1.380020014422</v>
       </c>
       <c r="S30">
-        <v>0.007042439473862161</v>
+        <v>0.0006534353315826496</v>
       </c>
       <c r="T30">
-        <v>0.007042439473862162</v>
+        <v>0.0006534353315826497</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H31">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I31">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J31">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N31">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O31">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P31">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q31">
-        <v>0.547868284416</v>
+        <v>0.243022215674</v>
       </c>
       <c r="R31">
-        <v>4.930814559744</v>
+        <v>2.187199941066</v>
       </c>
       <c r="S31">
-        <v>0.01023402568624317</v>
+        <v>0.001035632602275416</v>
       </c>
       <c r="T31">
-        <v>0.01023402568624317</v>
+        <v>0.001035632602275417</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H32">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I32">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J32">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.3359509999999999</v>
+        <v>0.7556573333333333</v>
       </c>
       <c r="N32">
-        <v>1.007853</v>
+        <v>2.266972</v>
       </c>
       <c r="O32">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="P32">
-        <v>0.1233928431506983</v>
+        <v>0.2394585697756244</v>
       </c>
       <c r="Q32">
-        <v>0.5943170281253333</v>
+        <v>1.065409838383111</v>
       </c>
       <c r="R32">
-        <v>5.348853253128</v>
+        <v>9.588688545448001</v>
       </c>
       <c r="S32">
-        <v>0.01110167517378697</v>
+        <v>0.00454021522416964</v>
       </c>
       <c r="T32">
-        <v>0.01110167517378697</v>
+        <v>0.004540215224169641</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H33">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I33">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J33">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.769553</v>
       </c>
       <c r="O33">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="P33">
-        <v>0.2166488324942702</v>
+        <v>0.1869165699982909</v>
       </c>
       <c r="Q33">
-        <v>1.043481023592</v>
+        <v>0.8316376098780002</v>
       </c>
       <c r="R33">
-        <v>9.391329212327999</v>
+        <v>7.484738488902001</v>
       </c>
       <c r="S33">
-        <v>0.019491932463167</v>
+        <v>0.003544001192151936</v>
       </c>
       <c r="T33">
-        <v>0.019491932463167</v>
+        <v>0.003544001192151936</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H34">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I34">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J34">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.304291</v>
+        <v>0.6611226666666666</v>
       </c>
       <c r="N34">
-        <v>0.912873</v>
+        <v>1.983368</v>
       </c>
       <c r="O34">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="P34">
-        <v>0.1117643097807988</v>
+        <v>0.2095016897512368</v>
       </c>
       <c r="Q34">
-        <v>0.5383086307386667</v>
+        <v>0.932124340456889</v>
       </c>
       <c r="R34">
-        <v>4.844777676648</v>
+        <v>8.389119064112002</v>
       </c>
       <c r="S34">
-        <v>0.01005545404034163</v>
+        <v>0.003972222677973477</v>
       </c>
       <c r="T34">
-        <v>0.01005545404034163</v>
+        <v>0.003972222677973478</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H35">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I35">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J35">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.676217</v>
+        <v>0.4440896666666667</v>
       </c>
       <c r="N35">
-        <v>2.028651</v>
+        <v>1.332269</v>
       </c>
       <c r="O35">
-        <v>0.2483705606378185</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="P35">
-        <v>0.2483705606378186</v>
+        <v>0.1407265856377588</v>
       </c>
       <c r="Q35">
-        <v>1.196267544397333</v>
+        <v>0.6261270540495556</v>
       </c>
       <c r="R35">
-        <v>10.766407899576</v>
+        <v>5.635143486446</v>
       </c>
       <c r="S35">
-        <v>0.02234594176231862</v>
+        <v>0.002668223514224817</v>
       </c>
       <c r="T35">
-        <v>0.02234594176231862</v>
+        <v>0.002668223514224817</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H36">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I36">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J36">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3327513333333333</v>
+        <v>0.272726</v>
       </c>
       <c r="N36">
-        <v>0.9982540000000001</v>
+        <v>0.818178</v>
       </c>
       <c r="O36">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="P36">
-        <v>0.122217624243374</v>
+        <v>0.08642353487466137</v>
       </c>
       <c r="Q36">
-        <v>0.5886566300782223</v>
+        <v>0.3845194782946667</v>
       </c>
       <c r="R36">
-        <v>5.297909670704001</v>
+        <v>3.460675304652</v>
       </c>
       <c r="S36">
-        <v>0.01099594052796741</v>
+        <v>0.001638619361721568</v>
       </c>
       <c r="T36">
-        <v>0.01099594052796741</v>
+        <v>0.001638619361721569</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H37">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I37">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J37">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.483552</v>
+        <v>0.4322446666666667</v>
       </c>
       <c r="N37">
-        <v>1.450656</v>
+        <v>1.296734</v>
       </c>
       <c r="O37">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="P37">
-        <v>0.17760582969304</v>
+        <v>0.1369730499624277</v>
       </c>
       <c r="Q37">
-        <v>0.855431856384</v>
+        <v>0.6094266543062223</v>
       </c>
       <c r="R37">
-        <v>7.698886707455999</v>
+        <v>5.484839888756001</v>
       </c>
       <c r="S37">
-        <v>0.01597922683258879</v>
+        <v>0.002597055212194237</v>
       </c>
       <c r="T37">
-        <v>0.01597922683258879</v>
+        <v>0.002597055212194237</v>
       </c>
     </row>
   </sheetData>
